--- a/metagenome/data_figures/filtered_data_1percent_change/family_data/fungi_family.xlsx
+++ b/metagenome/data_figures/filtered_data_1percent_change/family_data/fungi_family.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">Family</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t xml:space="preserve">MI29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI30</t>
   </si>
   <si>
     <t xml:space="preserve">MI31</t>
@@ -950,13 +947,10 @@
       <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="n">
         <v>0.00174870980340163</v>
@@ -1187,36 +1181,33 @@
         <v>0.00145680549188634</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>0.00729793003312299</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00729793003312299</v>
+        <v>0.00357739025049054</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.00357739025049054</v>
+        <v>0.00332652668767744</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.00332652668767744</v>
+        <v>0.00260330682560019</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00260330682560019</v>
+        <v>0.00570653698703661</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.00570653698703661</v>
+        <v>0.00183061810988938</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00183061810988938</v>
+        <v>0.00340058402544828</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00340058402544828</v>
-      </c>
-      <c r="CH2" t="n">
         <v>0.00229340160696033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
         <v>0.00766741990722268</v>
@@ -1447,36 +1438,33 @@
         <v>0.018262633795194</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0125828525855263</v>
+        <v>0.0121483835307474</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0121483835307474</v>
+        <v>0.00720837436241166</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.00720837436241166</v>
+        <v>0.0169029871974565</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0169029871974565</v>
+        <v>0.0105554845059855</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0105554845059855</v>
+        <v>0.0078390424581839</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0078390424581839</v>
+        <v>0.00469446852720106</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.00469446852720106</v>
+        <v>0.0128983555491565</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0128983555491565</v>
-      </c>
-      <c r="CH3" t="n">
         <v>0.0237638653352799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="n">
         <v>0.000283978515082323</v>
@@ -1716,27 +1704,24 @@
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0</v>
+        <v>0.00042677161075413</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.00042677161075413</v>
+        <v>0.00046462409706561</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.00046462409706561</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>0.00041761558207257</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.00041761558207257</v>
-      </c>
-      <c r="CH4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="n">
         <v>0.0221204317011494</v>
@@ -1967,36 +1952,33 @@
         <v>0.0101375639899309</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.013982534257923</v>
+        <v>0.00747592832661379</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.00747592832661379</v>
+        <v>0.0117236571879372</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0117236571879372</v>
+        <v>0.0276701195151687</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0276701195151687</v>
+        <v>0.0101287128952314</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0101287128952314</v>
+        <v>0.0220636878914234</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0220636878914234</v>
+        <v>0.00869262832548715</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.00869262832548715</v>
+        <v>0.0231001076255014</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0231001076255014</v>
-      </c>
-      <c r="CH5" t="n">
         <v>0.0293012231626118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="n">
         <v>0.00990935555260946</v>
@@ -2227,36 +2209,33 @@
         <v>0.00629279898041636</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.00350063310531914</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.00350063310531914</v>
+        <v>0.0078113053035056</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.0078113053035056</v>
+        <v>0.0199709146373286</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.0199709146373286</v>
+        <v>0.00257485538488325</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.00257485538488325</v>
+        <v>0.0106387004789639</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0106387004789639</v>
+        <v>0.00577262397842428</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.00577262397842428</v>
+        <v>0.0178858787864807</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0178858787864807</v>
-      </c>
-      <c r="CH6" t="n">
         <v>0.0129305603760857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="n">
         <v>0.00642688218344203</v>
@@ -2487,36 +2466,33 @@
         <v>0.004295323409067</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0</v>
+        <v>0.00416812670590968</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.00416812670590968</v>
+        <v>0.00324242861654947</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.00324242861654947</v>
+        <v>0.0101558977319905</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0101558977319905</v>
+        <v>0.0103990015820423</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0103990015820423</v>
+        <v>0.00665961205794043</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.00665961205794043</v>
+        <v>0.00262800391235658</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.00262800391235658</v>
+        <v>0.00556025317845228</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.00556025317845228</v>
-      </c>
-      <c r="CH7" t="n">
         <v>0.00924904727017561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="n">
         <v>0.00101634415924197</v>
@@ -2747,36 +2723,33 @@
         <v>0.00765949279239225</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.00818385304370775</v>
+        <v>0.00088999146745401</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.00088999146745401</v>
+        <v>0.00107187722861138</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.00107187722861138</v>
+        <v>0.00300915488355273</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.00300915488355273</v>
+        <v>0.00036986872932024</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.00036986872932024</v>
+        <v>0.00079820037188193</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.00079820037188193</v>
+        <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>0.00088295865923918</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.00088295865923918</v>
-      </c>
-      <c r="CH8" t="n">
         <v>0.00045264505400532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3010,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>0.00100488490182318</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.00100488490182318</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>0.00129454055262084</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.00129454055262084</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3028,15 +3001,12 @@
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
         <v>0.00366182822079834</v>
@@ -3267,36 +3237,33 @@
         <v>0.00768953001902905</v>
       </c>
       <c r="BZ10" t="n">
-        <v>3.41061004411568</v>
+        <v>0.00620027388992967</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.00620027388992967</v>
+        <v>0.00679302193632473</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.00679302193632473</v>
+        <v>0.00337354473273295</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.00337354473273295</v>
+        <v>0.00958813552160946</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.00958813552160946</v>
+        <v>0.00818453217138652</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.00818453217138652</v>
+        <v>0.0114217093113959</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0114217093113959</v>
+        <v>0.00326933341393975</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.00326933341393975</v>
-      </c>
-      <c r="CH10" t="n">
         <v>0.0051752417841276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="n">
         <v>0.00419989277569119</v>
@@ -3527,36 +3494,33 @@
         <v>0.00124654490542854</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0117544695549241</v>
+        <v>0.00114215571656598</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.00114215571656598</v>
+        <v>0.00133984653576423</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.00133984653576423</v>
+        <v>0.00307968195113601</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.00307968195113601</v>
+        <v>0.00116650906939461</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.00116650906939461</v>
+        <v>0.00169170825085428</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.00169170825085428</v>
+        <v>0.00214508011649619</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.00214508011649619</v>
+        <v>0.00063238930999563</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.00063238930999563</v>
-      </c>
-      <c r="CH11" t="n">
         <v>0.00267060581863146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="n">
         <v>0.00783182852121774</v>
@@ -3787,36 +3751,33 @@
         <v>0.00563197999440606</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>0.00734242960649571</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.00734242960649571</v>
+        <v>0.00828025159102308</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.00828025159102308</v>
+        <v>0.0167971965960816</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0167971965960816</v>
+        <v>0.00900488098691217</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.00900488098691217</v>
+        <v>0.00763651400561685</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.00763651400561685</v>
+        <v>0.00498646896190737</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.00498646896190737</v>
+        <v>0.00992731897955433</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.00992731897955433</v>
-      </c>
-      <c r="CH12" t="n">
         <v>0.0131568829030883</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="n">
         <v>0.00161419366467846</v>
@@ -4053,30 +4014,27 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>0.00045842593929123</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.00045842593929123</v>
+        <v>0.00045522305147106</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.00045522305147106</v>
+        <v>0.00039314346674781</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.00039314346674781</v>
+        <v>0</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
         <v>0.00040738054860477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="n">
         <v>0.00103129039687791</v>
@@ -4307,36 +4265,33 @@
         <v>0.00067583759932872</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>0.00048949530709971</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.00048949530709971</v>
+        <v>0.00041535242608689</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.00041535242608689</v>
+        <v>0.00122246917144329</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.00122246917144329</v>
+        <v>0.00034141728860328</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.00034141728860328</v>
+        <v>0.00060758535770118</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.00060758535770118</v>
+        <v>0.0005952316553628</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.0005952316553628</v>
+        <v>0.00058466181490161</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.00058466181490161</v>
-      </c>
-      <c r="CH14" t="n">
         <v>0.0020067264060903</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="n">
         <v>0.0019280646550326</v>
@@ -4567,36 +4522,33 @@
         <v>0.00051063285282615</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.00898367114222022</v>
+        <v>0.00115698890769021</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.00115698890769021</v>
+        <v>0.00182219128863936</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.00182219128863936</v>
+        <v>0.0015868590206235</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0015868590206235</v>
+        <v>0.00547690233801135</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.00547690233801135</v>
+        <v>0.0004884509738382</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0004884509738382</v>
+        <v>0.00205523382889425</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.00205523382889425</v>
+        <v>0.00107386863961524</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.00107386863961524</v>
-      </c>
-      <c r="CH15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="n">
         <v>0.00270526901209999</v>
@@ -4827,36 +4779,33 @@
         <v>0.00357442996978303</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>0.00278863993135591</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.00278863993135591</v>
+        <v>0.00383196109228573</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.00383196109228573</v>
+        <v>0.00895693758307498</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.00895693758307498</v>
+        <v>0.0028451440716942</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0028451440716942</v>
+        <v>0.00389569435231935</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.00389569435231935</v>
+        <v>0.00379600565118172</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.00379600565118172</v>
+        <v>0.00653866682787952</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.00653866682787952</v>
-      </c>
-      <c r="CH16" t="n">
         <v>0.00470750856165544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="n">
         <v>0.00777204357067407</v>
@@ -5087,36 +5036,33 @@
         <v>0.00391985807610658</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>0.00688260068164443</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.00688260068164443</v>
+        <v>0.00306824856690011</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.00306824856690011</v>
+        <v>0.00494864924209259</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.00494864924209259</v>
+        <v>0.00822246636719627</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.00822246636719627</v>
+        <v>0.0019776307721254</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0019776307721254</v>
+        <v>0.0105007848634761</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.0105007848634761</v>
+        <v>0.0060136643818454</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0060136643818454</v>
-      </c>
-      <c r="CH17" t="n">
         <v>0.00763461324422325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="n">
         <v>0.00310881742826964</v>
@@ -5347,36 +5293,33 @@
         <v>0.00249308981085708</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0</v>
+        <v>0.00192831484615038</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.00192831484615038</v>
+        <v>0.00336301480476828</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.00336301480476828</v>
+        <v>0.00747586916382636</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.00747586916382636</v>
+        <v>0.00140834631548862</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.00140834631548862</v>
+        <v>0.00309749398043739</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.00309749398043739</v>
+        <v>0.00097707837767103</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.00097707837767103</v>
+        <v>0.00544093444071726</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.00544093444071726</v>
-      </c>
-      <c r="CH18" t="n">
         <v>0.00416433449684904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
         <v>0.0160522592209692</v>
@@ -5607,36 +5550,33 @@
         <v>0.00983719172356257</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
+        <v>0.00864775042542827</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.00864775042542827</v>
+        <v>0.00928513649284628</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.00928513649284628</v>
+        <v>0.0275878379363216</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.0275878379363216</v>
+        <v>0.0111529647610413</v>
       </c>
       <c r="CD19" t="n">
-        <v>0.0111529647610413</v>
+        <v>0.0175127544278577</v>
       </c>
       <c r="CE19" t="n">
-        <v>0.0175127544278577</v>
+        <v>0.0115115555989979</v>
       </c>
       <c r="CF19" t="n">
-        <v>0.0115115555989979</v>
+        <v>0.0244842049832278</v>
       </c>
       <c r="CG19" t="n">
-        <v>0.0244842049832278</v>
-      </c>
-      <c r="CH19" t="n">
         <v>0.0233263084497415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="n">
         <v>0.00068752693125192</v>
@@ -5867,36 +5807,33 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0</v>
+        <v>0.00075649274733591</v>
       </c>
       <c r="CA20" t="n">
-        <v>0.00075649274733591</v>
+        <v>0.00163461277363239</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.00163461277363239</v>
+        <v>0.00043491691676346</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.00043491691676346</v>
+        <v>0.00093889754365908</v>
       </c>
       <c r="CD20" t="n">
-        <v>0.00093889754365908</v>
+        <v>0.00061949879608746</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.00061949879608746</v>
+        <v>0.00068507794296474</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.00068507794296474</v>
+        <v>0.00097841364942723</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.00097841364942723</v>
-      </c>
-      <c r="CH20" t="n">
         <v>0.00096564278187804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="n">
         <v>0.00422978525096299</v>
@@ -6127,36 +6064,33 @@
         <v>0.0101826198298861</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>0.00415329351478543</v>
       </c>
       <c r="CA21" t="n">
-        <v>0.00415329351478543</v>
+        <v>0.0086420101556794</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.0086420101556794</v>
+        <v>0.00561865638413361</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.00561865638413361</v>
+        <v>0.00974461844555266</v>
       </c>
       <c r="CD21" t="n">
-        <v>0.00974461844555266</v>
+        <v>0.00509895162933542</v>
       </c>
       <c r="CE21" t="n">
-        <v>0.00509895162933542</v>
+        <v>0.00708662593460257</v>
       </c>
       <c r="CF21" t="n">
-        <v>0.00708662593460257</v>
+        <v>0.00571536753750781</v>
       </c>
       <c r="CG21" t="n">
-        <v>0.00571536753750781</v>
-      </c>
-      <c r="CH21" t="n">
         <v>0.00648791244074307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="n">
         <v>0.00109107534742155</v>
@@ -6387,36 +6321,33 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0</v>
+        <v>0.00275897354910747</v>
       </c>
       <c r="CA22" t="n">
-        <v>0.00275897354910747</v>
+        <v>0.00367117950799404</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.00367117950799404</v>
+        <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>0</v>
+        <v>0.00103847758616838</v>
       </c>
       <c r="CD22" t="n">
-        <v>0.00103847758616838</v>
+        <v>0.00109603633153938</v>
       </c>
       <c r="CE22" t="n">
-        <v>0.00109603633153938</v>
+        <v>0.00110061702312369</v>
       </c>
       <c r="CF22" t="n">
-        <v>0.00110061702312369</v>
+        <v>0.00145568860036734</v>
       </c>
       <c r="CG22" t="n">
-        <v>0.00145568860036734</v>
-      </c>
-      <c r="CH22" t="n">
         <v>0.00081476109720957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="n">
         <v>0.00705462416415033</v>
@@ -6647,36 +6578,33 @@
         <v>0.00729904607275025</v>
       </c>
       <c r="BZ23" t="n">
-        <v>0</v>
+        <v>0.00716443131300488</v>
       </c>
       <c r="CA23" t="n">
-        <v>0.00716443131300488</v>
+        <v>0.00584173089593213</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.00584173089593213</v>
+        <v>0.0223923439576875</v>
       </c>
       <c r="CC23" t="n">
-        <v>0.0223923439576875</v>
+        <v>0.00453800479435225</v>
       </c>
       <c r="CD23" t="n">
-        <v>0.00453800479435225</v>
+        <v>0.0180250322784685</v>
       </c>
       <c r="CE23" t="n">
-        <v>0.0180250322784685</v>
+        <v>0.00514369996521074</v>
       </c>
       <c r="CF23" t="n">
-        <v>0.00514369996521074</v>
+        <v>0.0150102972070665</v>
       </c>
       <c r="CG23" t="n">
-        <v>0.0150102972070665</v>
-      </c>
-      <c r="CH23" t="n">
         <v>0.0196598835122983</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="n">
         <v>0.0391890350813605</v>
@@ -6907,36 +6835,33 @@
         <v>0.0502823173900572</v>
       </c>
       <c r="BZ24" t="n">
-        <v>0.181830075217179</v>
+        <v>0.0497505230306798</v>
       </c>
       <c r="CA24" t="n">
-        <v>0.0497505230306798</v>
+        <v>0.0371003505753121</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.0371003505753121</v>
+        <v>0.0289396067316674</v>
       </c>
       <c r="CC24" t="n">
-        <v>0.0289396067316674</v>
+        <v>0.0407851402677364</v>
       </c>
       <c r="CD24" t="n">
-        <v>0.0407851402677364</v>
+        <v>0.0424237540936062</v>
       </c>
       <c r="CE24" t="n">
-        <v>0.0424237540936062</v>
+        <v>0.086005358806952</v>
       </c>
       <c r="CF24" t="n">
-        <v>0.086005358806952</v>
+        <v>0.0353302782433417</v>
       </c>
       <c r="CG24" t="n">
-        <v>0.0353302782433417</v>
-      </c>
-      <c r="CH24" t="n">
         <v>0.034129437072002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="n">
         <v>0.00044838712907733</v>
@@ -7170,33 +7095,30 @@
         <v>0</v>
       </c>
       <c r="CA25" t="n">
-        <v>0</v>
+        <v>0.00148722965469831</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.00148722965469831</v>
+        <v>0.00082281578847144</v>
       </c>
       <c r="CC25" t="n">
-        <v>0.00082281578847144</v>
+        <v>0.00069706029756507</v>
       </c>
       <c r="CD25" t="n">
-        <v>0.00069706029756507</v>
+        <v>0.00067906598801895</v>
       </c>
       <c r="CE25" t="n">
-        <v>0.00067906598801895</v>
+        <v>0</v>
       </c>
       <c r="CF25" t="n">
         <v>0</v>
       </c>
       <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
         <v>0.00141828783588336</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="n">
         <v>0.103129039687791</v>
@@ -7427,36 +7349,33 @@
         <v>0.122026233212131</v>
       </c>
       <c r="BZ26" t="n">
-        <v>0.0935215876617775</v>
+        <v>0.120638343413393</v>
       </c>
       <c r="CA26" t="n">
-        <v>0.120638343413393</v>
+        <v>0.119876069554828</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.119876069554828</v>
+        <v>0.124256938570454</v>
       </c>
       <c r="CC26" t="n">
-        <v>0.124256938570454</v>
+        <v>0.150067124061511</v>
       </c>
       <c r="CD26" t="n">
-        <v>0.150067124061511</v>
+        <v>0.122482060049527</v>
       </c>
       <c r="CE26" t="n">
-        <v>0.122482060049527</v>
+        <v>0.0977302993390046</v>
       </c>
       <c r="CF26" t="n">
-        <v>0.0977302993390046</v>
+        <v>0.132873346341727</v>
       </c>
       <c r="CG26" t="n">
-        <v>0.132873346341727</v>
-      </c>
-      <c r="CH26" t="n">
         <v>0.106552645712855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="n">
         <v>0.00041849465380551</v>
@@ -7687,36 +7606,33 @@
         <v>0</v>
       </c>
       <c r="BZ27" t="n">
-        <v>0</v>
+        <v>0.00134982039230526</v>
       </c>
       <c r="CA27" t="n">
-        <v>0.00134982039230526</v>
+        <v>0.00121926034754547</v>
       </c>
       <c r="CB27" t="n">
-        <v>0.00121926034754547</v>
+        <v>0.00105790601374899</v>
       </c>
       <c r="CC27" t="n">
-        <v>0.00105790601374899</v>
+        <v>0.00149370063763944</v>
       </c>
       <c r="CD27" t="n">
-        <v>0.00149370063763944</v>
+        <v>0.00116751696185718</v>
       </c>
       <c r="CE27" t="n">
-        <v>0.00116751696185718</v>
+        <v>0</v>
       </c>
       <c r="CF27" t="n">
         <v>0</v>
       </c>
       <c r="CG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH27" t="n">
         <v>0.00036211604320425</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="n">
         <v>0.00106118287214973</v>
@@ -7947,36 +7863,33 @@
         <v>0.00033040949300514</v>
       </c>
       <c r="BZ28" t="n">
-        <v>0</v>
+        <v>0.00121632167218716</v>
       </c>
       <c r="CA28" t="n">
-        <v>0.00121632167218716</v>
+        <v>0.00242512222973328</v>
       </c>
       <c r="CB28" t="n">
-        <v>0.00242512222973328</v>
+        <v>0.00106966052501289</v>
       </c>
       <c r="CC28" t="n">
-        <v>0.00106966052501289</v>
+        <v>0.00032719156824483</v>
       </c>
       <c r="CD28" t="n">
-        <v>0.00032719156824483</v>
+        <v>0.00208485171760209</v>
       </c>
       <c r="CE28" t="n">
-        <v>0.00208485171760209</v>
+        <v>0.00138138667187973</v>
       </c>
       <c r="CF28" t="n">
-        <v>0.00138138667187973</v>
+        <v>0.00149148422168784</v>
       </c>
       <c r="CG28" t="n">
-        <v>0.00149148422168784</v>
-      </c>
-      <c r="CH28" t="n">
         <v>0.00194637373222293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" t="n">
         <v>0.0016739786152221</v>
@@ -8207,36 +8120,33 @@
         <v>0.00154691717179686</v>
       </c>
       <c r="BZ29" t="n">
-        <v>0</v>
+        <v>0.0014536527301749</v>
       </c>
       <c r="CA29" t="n">
-        <v>0.0014536527301749</v>
+        <v>0.00282707619046257</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.00282707619046257</v>
+        <v>0.00195124886980374</v>
       </c>
       <c r="CC29" t="n">
-        <v>0.00195124886980374</v>
+        <v>0.00079664034007437</v>
       </c>
       <c r="CD29" t="n">
-        <v>0.00079664034007437</v>
+        <v>0.00035740315158891</v>
       </c>
       <c r="CE29" t="n">
-        <v>0.00035740315158891</v>
+        <v>0.00189800282559087</v>
       </c>
       <c r="CF29" t="n">
-        <v>0.00189800282559087</v>
+        <v>0.00126477861999129</v>
       </c>
       <c r="CG29" t="n">
-        <v>0.00126477861999129</v>
-      </c>
-      <c r="CH29" t="n">
         <v>0.00182566838448816</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" t="n">
         <v>0.00052311831725691</v>
@@ -8467,36 +8377,33 @@
         <v>0.00165204746502576</v>
       </c>
       <c r="BZ30" t="n">
-        <v>0</v>
+        <v>0.00115698890769021</v>
       </c>
       <c r="CA30" t="n">
-        <v>0.00115698890769021</v>
+        <v>0.00092449410967731</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.00092449410967731</v>
+        <v>0.00142229586292923</v>
       </c>
       <c r="CC30" t="n">
-        <v>0.00142229586292923</v>
+        <v>0.00095312326401756</v>
       </c>
       <c r="CD30" t="n">
-        <v>0.00095312326401756</v>
+        <v>0.00121517071540236</v>
       </c>
       <c r="CE30" t="n">
-        <v>0.00121517071540236</v>
+        <v>0.00037061593635798</v>
       </c>
       <c r="CF30" t="n">
-        <v>0.00037061593635798</v>
+        <v>0.00065625305754264</v>
       </c>
       <c r="CG30" t="n">
-        <v>0.00065625305754264</v>
-      </c>
-      <c r="CH30" t="n">
         <v>0.00092037827647749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -8748,15 +8655,12 @@
         <v>0</v>
       </c>
       <c r="CG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" t="n">
         <v>0.00346752713153151</v>
@@ -8987,30 +8891,27 @@
         <v>0.00557190554113239</v>
       </c>
       <c r="BZ32" t="n">
-        <v>0</v>
+        <v>0.00341163395857374</v>
       </c>
       <c r="CA32" t="n">
-        <v>0.00341163395857374</v>
+        <v>0.00263949767545555</v>
       </c>
       <c r="CB32" t="n">
-        <v>0.00263949767545555</v>
+        <v>0.0084162300649366</v>
       </c>
       <c r="CC32" t="n">
-        <v>0.0084162300649366</v>
+        <v>0.0102709700988161</v>
       </c>
       <c r="CD32" t="n">
-        <v>0.0102709700988161</v>
+        <v>0.00924482818776705</v>
       </c>
       <c r="CE32" t="n">
-        <v>0.00924482818776705</v>
+        <v>0.00275154255780924</v>
       </c>
       <c r="CF32" t="n">
-        <v>0.00275154255780924</v>
+        <v>0.0073261704969307</v>
       </c>
       <c r="CG32" t="n">
-        <v>0.0073261704969307</v>
-      </c>
-      <c r="CH32" t="n">
         <v>0.00796655295049383</v>
       </c>
     </row>
